--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2850,6 +2850,67 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>127</v>
+      </c>
+      <c r="E40" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>12</v>
+      </c>
+      <c r="H40" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="J40" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>116</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="N40" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>123</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2864,7 +2925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2891,50 +2952,50 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45305</v>
+        <v>45307</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45310</v>
+        <v>45312</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45312</v>
+        <v>45313</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2943,24 +3004,24 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45313</v>
+        <v>45315</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45315</v>
+        <v>45317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2969,11 +3030,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45317</v>
+        <v>45319</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2982,11 +3043,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45319</v>
+        <v>45320</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2995,11 +3056,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3008,11 +3069,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3021,11 +3082,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3034,24 +3095,24 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3060,37 +3121,37 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3099,24 +3160,24 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3125,24 +3186,24 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3151,7 +3212,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3164,11 +3225,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3177,37 +3238,37 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3216,24 +3277,24 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3242,11 +3303,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3255,11 +3316,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3268,24 +3329,24 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3294,20 +3355,20 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3320,11 +3381,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3333,11 +3394,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3346,11 +3407,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3359,24 +3420,24 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3385,11 +3446,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3398,11 +3459,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3411,7 +3472,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3419,16 +3480,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3437,27 +3498,14 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2911,6 +2911,67 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>119</v>
+      </c>
+      <c r="E41" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="G41" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="J41" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>117</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="N41" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O41" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>115.1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2925,7 +2986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2952,37 +3013,37 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45310</v>
+        <v>45312</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45312</v>
+        <v>45313</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2991,24 +3052,24 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45315</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45315</v>
+        <v>45317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3017,11 +3078,11 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45317</v>
+        <v>45319</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3030,11 +3091,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45319</v>
+        <v>45320</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3043,11 +3104,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3056,11 +3117,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3069,11 +3130,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3082,24 +3143,24 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3108,37 +3169,37 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3147,24 +3208,24 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3173,24 +3234,24 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3199,7 +3260,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3212,11 +3273,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3225,37 +3286,37 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3264,24 +3325,24 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3290,11 +3351,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3303,11 +3364,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3316,24 +3377,24 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3342,20 +3403,20 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3368,11 +3429,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3381,11 +3442,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3394,11 +3455,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3407,24 +3468,24 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3433,11 +3494,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3446,11 +3507,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3459,7 +3520,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3467,16 +3528,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3485,27 +3546,14 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2972,6 +2972,189 @@
         <v>1</v>
       </c>
       <c r="S41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>123</v>
+      </c>
+      <c r="E42" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="J42" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>109</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="N42" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O42" t="n">
+        <v>18</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>107</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>117</v>
+      </c>
+      <c r="E43" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="G43" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="J43" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>110</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="N43" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O43" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>115</v>
+      </c>
+      <c r="E44" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="J44" t="n">
+        <v>123.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>113</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="N44" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O44" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,7 +3169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,11 +3196,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45310</v>
+        <v>45315</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3026,7 +3209,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45312</v>
+        <v>45317</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -3034,29 +3217,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45319</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3065,11 +3248,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3078,11 +3261,11 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45319</v>
+        <v>45324</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3091,11 +3274,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45320</v>
+        <v>45326</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3104,37 +3287,37 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45322</v>
+        <v>45328</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45324</v>
+        <v>45330</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45326</v>
+        <v>45332</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3143,11 +3326,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45328</v>
+        <v>45335</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3156,11 +3339,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3169,11 +3352,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45332</v>
+        <v>45344</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3182,24 +3365,24 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45335</v>
+        <v>45345</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45336</v>
+        <v>45347</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3208,20 +3391,20 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45344</v>
+        <v>45351</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45345</v>
+        <v>45353</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3229,16 +3412,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45347</v>
+        <v>45354</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3247,24 +3430,24 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45351</v>
+        <v>45356</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45353</v>
+        <v>45358</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3273,11 +3456,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45354</v>
+        <v>45360</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3286,11 +3469,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45356</v>
+        <v>45362</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3299,37 +3482,37 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45358</v>
+        <v>45365</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45360</v>
+        <v>45366</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3338,37 +3521,37 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45365</v>
+        <v>45371</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45366</v>
+        <v>45372</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45368</v>
+        <v>45374</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3377,37 +3560,37 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45372</v>
+        <v>45378</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45374</v>
+        <v>45380</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3416,11 +3599,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45376</v>
+        <v>45383</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3429,33 +3612,33 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45378</v>
+        <v>45385</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45380</v>
+        <v>45387</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3463,16 +3646,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45385</v>
+        <v>45391</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3481,79 +3664,40 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45387</v>
+        <v>45392</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45389</v>
+        <v>45394</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45391</v>
+        <v>45396</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1769,7 @@
         <v>103</v>
       </c>
       <c r="E22" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="F22" t="n">
         <v>0.573</v>
@@ -1778,13 +1778,13 @@
         <v>19.2</v>
       </c>
       <c r="H22" t="n">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
         <v>0.227</v>
       </c>
       <c r="J22" t="n">
-        <v>108.8</v>
+        <v>109</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>0.206</v>
       </c>
       <c r="Q22" t="n">
-        <v>112</v>
+        <v>112.2</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3155,6 +3155,67 @@
         <v>1</v>
       </c>
       <c r="S44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>132</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H45" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="J45" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>109</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O45" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3169,7 +3230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3196,11 +3257,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45315</v>
+        <v>45317</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3209,11 +3270,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45317</v>
+        <v>45319</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3222,11 +3283,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45319</v>
+        <v>45320</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3235,11 +3296,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3248,11 +3309,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3261,11 +3322,11 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3274,24 +3335,24 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3300,37 +3361,37 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3339,24 +3400,24 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3365,24 +3426,24 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3391,7 +3452,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3404,11 +3465,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3417,37 +3478,37 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3456,24 +3517,24 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3482,11 +3543,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3495,11 +3556,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3508,24 +3569,24 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3534,20 +3595,20 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3560,11 +3621,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3573,11 +3634,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3586,11 +3647,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3599,24 +3660,24 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3625,11 +3686,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3638,11 +3699,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3651,7 +3712,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3659,16 +3720,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3677,27 +3738,14 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -17,9 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3217,6 +3220,128 @@
       </c>
       <c r="S45" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>131</v>
+      </c>
+      <c r="E46" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="G46" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J46" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>133</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="O46" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>125</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>98</v>
+      </c>
+      <c r="E47" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="G47" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="J47" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>113</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O47" t="n">
+        <v>25</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3230,7 +3355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3256,12 +3381,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45317</v>
+      <c r="A2" s="3" t="n">
+        <v>45320</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3269,12 +3394,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45319</v>
+      <c r="A3" s="3" t="n">
+        <v>45322</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3282,12 +3407,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45320</v>
+      <c r="A4" s="3" t="n">
+        <v>45324</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3295,12 +3420,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45322</v>
+      <c r="A5" s="3" t="n">
+        <v>45326</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3308,444 +3433,418 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45324</v>
+      <c r="A6" s="3" t="n">
+        <v>45328</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45335</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45353</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45360</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45368</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>ATL</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45326</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45328</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45330</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45332</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45335</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45389</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>SAC</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45345</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45353</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45354</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45358</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45360</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45365</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45366</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45368</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45371</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45372</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45374</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45380</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45385</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45387</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45389</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
       <c r="C37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3287,7 +3287,7 @@
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="2" t="n">
         <v>45319</v>
       </c>
       <c r="C47" t="n">
@@ -3342,6 +3342,67 @@
       </c>
       <c r="S47" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>118</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="J48" t="n">
+        <v>123</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>105</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="O48" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3382,11 +3443,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3395,11 +3456,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3408,11 +3469,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3421,24 +3482,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3447,37 +3508,37 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3486,24 +3547,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3512,24 +3573,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3538,7 +3599,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3551,11 +3612,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3564,37 +3625,37 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3603,24 +3664,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3629,11 +3690,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3642,11 +3703,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3655,24 +3716,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3681,20 +3742,20 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3707,11 +3768,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3720,11 +3781,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3733,11 +3794,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3746,24 +3807,24 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3772,11 +3833,11 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3785,11 +3846,11 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3798,7 +3859,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3806,16 +3867,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3824,27 +3885,14 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3402,6 +3402,67 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>136</v>
+      </c>
+      <c r="E49" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="G49" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="J49" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>120</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="N49" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O49" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3416,7 +3477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3443,11 +3504,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3456,11 +3517,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3469,24 +3530,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3495,37 +3556,37 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3534,24 +3595,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3560,24 +3621,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3586,7 +3647,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -3599,11 +3660,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3612,37 +3673,37 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3651,24 +3712,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3677,11 +3738,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3690,11 +3751,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3703,24 +3764,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3729,20 +3790,20 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3755,11 +3816,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3768,11 +3829,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3781,11 +3842,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3794,24 +3855,24 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3820,11 +3881,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3833,11 +3894,11 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3846,7 +3907,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3854,16 +3915,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3872,27 +3933,14 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3409,7 +3409,7 @@
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="2" t="n">
         <v>45322</v>
       </c>
       <c r="C49" t="n">
@@ -3464,6 +3464,67 @@
       </c>
       <c r="S49" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>120</v>
+      </c>
+      <c r="E50" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="G50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="J50" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>129</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8</v>
+      </c>
+      <c r="O50" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3477,7 +3538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3504,11 +3565,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3517,24 +3578,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3543,37 +3604,37 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3582,24 +3643,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3608,24 +3669,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3634,7 +3695,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3647,11 +3708,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3660,37 +3721,37 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3699,24 +3760,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3725,11 +3786,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3738,11 +3799,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3751,24 +3812,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3777,20 +3838,20 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -3803,11 +3864,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3816,11 +3877,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3829,11 +3890,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3842,24 +3903,24 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3868,11 +3929,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3881,11 +3942,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3894,7 +3955,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -3902,16 +3963,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3920,27 +3981,14 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -3470,7 +3470,7 @@
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
         <v>45324</v>
       </c>
       <c r="C50" t="n">

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3525,6 +3525,67 @@
       </c>
       <c r="S50" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>140</v>
+      </c>
+      <c r="E51" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="G51" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H51" t="n">
+        <v>29</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="J51" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>112</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="N51" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="O51" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3538,7 +3599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3565,24 +3626,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3591,37 +3652,37 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3630,24 +3691,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3656,24 +3717,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3682,7 +3743,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3695,11 +3756,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3708,37 +3769,37 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3747,24 +3808,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3773,11 +3834,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3786,11 +3847,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3799,24 +3860,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3825,20 +3886,20 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3851,11 +3912,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3864,11 +3925,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3877,11 +3938,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3890,24 +3951,24 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3916,11 +3977,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3929,11 +3990,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3942,7 +4003,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -3950,16 +4011,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3968,27 +4029,14 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3531,7 +3531,7 @@
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>45326</v>
       </c>
       <c r="C51" t="n">
@@ -3585,6 +3585,67 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>114</v>
+      </c>
+      <c r="E52" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="G52" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>19</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="J52" t="n">
+        <v>112.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>106</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N52" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="O52" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3599,7 +3660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3626,11 +3687,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3639,37 +3700,37 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3678,24 +3739,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3704,24 +3765,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3730,7 +3791,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3743,11 +3804,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3756,37 +3817,37 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3795,24 +3856,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3821,11 +3882,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3834,11 +3895,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3847,24 +3908,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3873,20 +3934,20 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3899,11 +3960,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3912,11 +3973,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3925,11 +3986,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3938,24 +3999,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3964,11 +4025,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3977,11 +4038,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3990,7 +4051,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -3998,16 +4059,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -4016,27 +4077,14 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3592,7 +3592,7 @@
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>45328</v>
       </c>
       <c r="C52" t="n">
@@ -3646,6 +3646,67 @@
         <v>1</v>
       </c>
       <c r="S52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>129</v>
+      </c>
+      <c r="E53" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G53" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J53" t="n">
+        <v>128</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>115</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N53" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O53" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,7 +3721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,37 +3748,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3726,24 +3787,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3752,24 +3813,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3778,7 +3839,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -3791,11 +3852,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3804,37 +3865,37 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3843,24 +3904,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3869,11 +3930,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3882,11 +3943,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3895,24 +3956,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3921,20 +3982,20 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3947,11 +4008,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3960,11 +4021,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3973,11 +4034,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3986,24 +4047,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4012,11 +4073,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4025,11 +4086,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4038,7 +4099,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4046,16 +4107,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4064,27 +4125,14 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,7 +3653,7 @@
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="2" t="n">
         <v>45330</v>
       </c>
       <c r="C53" t="n">
@@ -3708,6 +3708,67 @@
       </c>
       <c r="S53" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>112</v>
+      </c>
+      <c r="E54" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="G54" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J54" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>113</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N54" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="O54" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3721,7 +3782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3748,24 +3809,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3774,24 +3835,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3800,24 +3861,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3826,7 +3887,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -3839,11 +3900,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3852,37 +3913,37 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3891,24 +3952,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3917,11 +3978,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3930,11 +3991,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3943,24 +4004,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3969,20 +4030,20 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3995,11 +4056,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4008,11 +4069,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4021,11 +4082,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4034,24 +4095,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4060,11 +4121,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4073,11 +4134,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4086,7 +4147,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4094,16 +4155,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4112,27 +4173,14 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3769,6 +3769,67 @@
       </c>
       <c r="S54" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>130</v>
+      </c>
+      <c r="E55" t="n">
+        <v>103</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H55" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="J55" t="n">
+        <v>126.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>125</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="N55" t="n">
+        <v>11</v>
+      </c>
+      <c r="O55" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3782,7 +3843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,11 +3870,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3822,24 +3883,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3848,24 +3909,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3874,7 +3935,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -3887,11 +3948,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3900,37 +3961,37 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3939,24 +4000,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3965,11 +4026,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3978,11 +4039,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3991,24 +4052,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4017,20 +4078,20 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4043,11 +4104,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4056,11 +4117,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4069,11 +4130,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4082,24 +4143,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4108,11 +4169,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4121,11 +4182,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4134,7 +4195,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4142,16 +4203,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4160,27 +4221,14 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3829,6 +3829,67 @@
         <v>1</v>
       </c>
       <c r="S55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>116</v>
+      </c>
+      <c r="E56" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="G56" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>22</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="J56" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>100</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="N56" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="O56" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>92</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,7 +3904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,24 +3931,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3896,24 +3957,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3922,7 +3983,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -3935,11 +3996,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3948,37 +4009,37 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3987,24 +4048,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4013,11 +4074,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4026,11 +4087,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4039,24 +4100,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4065,20 +4126,20 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -4091,11 +4152,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4104,11 +4165,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4117,11 +4178,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4130,24 +4191,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4156,11 +4217,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4169,11 +4230,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4182,7 +4243,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4190,16 +4251,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4208,27 +4269,14 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -3836,7 +3836,7 @@
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>45336</v>
       </c>
       <c r="C56" t="n">

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3891,6 +3891,67 @@
       </c>
       <c r="S56" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>113</v>
+      </c>
+      <c r="E57" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="G57" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H57" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="J57" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>123</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="N57" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O57" t="n">
+        <v>25</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3904,7 +3965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3931,11 +3992,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3944,24 +4005,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3970,7 +4031,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -3983,11 +4044,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3996,37 +4057,37 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4035,24 +4096,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4061,11 +4122,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4074,11 +4135,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4087,24 +4148,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4113,20 +4174,20 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -4139,11 +4200,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4152,11 +4213,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4165,11 +4226,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4178,24 +4239,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4204,11 +4265,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4217,11 +4278,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4230,7 +4291,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4238,16 +4299,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4256,27 +4317,14 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3897,7 +3897,7 @@
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>45344</v>
       </c>
       <c r="C57" t="n">
@@ -3951,6 +3951,67 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>110</v>
+      </c>
+      <c r="E58" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="G58" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="J58" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>114</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="N58" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O58" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3965,7 +4026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3992,24 +4053,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4018,7 +4079,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4031,11 +4092,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4044,37 +4105,37 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4083,24 +4144,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4109,11 +4170,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4122,11 +4183,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4135,24 +4196,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4161,20 +4222,20 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -4187,11 +4248,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4200,11 +4261,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4213,11 +4274,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4226,24 +4287,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4252,11 +4313,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4265,11 +4326,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4278,7 +4339,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4286,16 +4347,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4304,27 +4365,14 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4013,6 +4013,67 @@
       </c>
       <c r="S58" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>123</v>
+      </c>
+      <c r="E59" t="n">
+        <v>98</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G59" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="J59" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>113</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="N59" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4026,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,11 +4114,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4066,7 +4127,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4079,11 +4140,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4092,37 +4153,37 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4131,24 +4192,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4157,11 +4218,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4170,11 +4231,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4183,24 +4244,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4209,20 +4270,20 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -4235,11 +4296,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4248,11 +4309,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4261,11 +4322,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4274,24 +4335,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4300,11 +4361,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4313,11 +4374,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4326,7 +4387,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4334,16 +4395,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4352,27 +4413,14 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -4019,7 +4019,7 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>45347</v>
       </c>
       <c r="C59" t="n">

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4073,6 +4073,67 @@
         <v>1</v>
       </c>
       <c r="S59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>110</v>
+      </c>
+      <c r="E60" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="G60" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H60" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="J60" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>105</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="N60" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O60" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4114,7 +4175,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4127,11 +4188,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4140,37 +4201,37 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4179,24 +4240,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4205,11 +4266,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4218,11 +4279,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4231,24 +4292,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4257,20 +4318,20 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4283,11 +4344,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4296,11 +4357,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4309,11 +4370,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4322,24 +4383,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4348,11 +4409,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4361,11 +4422,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4374,7 +4435,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4382,16 +4443,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4400,27 +4461,14 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -4080,7 +4080,7 @@
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>45351</v>
       </c>
       <c r="C60" t="n">

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4135,6 +4135,67 @@
       </c>
       <c r="S60" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>109</v>
+      </c>
+      <c r="E61" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="G61" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H61" t="n">
+        <v>20</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="J61" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>118</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="N61" t="n">
+        <v>10</v>
+      </c>
+      <c r="O61" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4148,7 +4209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4175,11 +4236,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4188,37 +4249,37 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4227,24 +4288,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4253,11 +4314,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4266,11 +4327,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4279,24 +4340,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4305,20 +4366,20 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4331,11 +4392,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4344,11 +4405,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4357,11 +4418,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4370,24 +4431,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4396,11 +4457,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4409,11 +4470,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4422,7 +4483,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4430,16 +4491,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4448,27 +4509,14 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4141,7 +4141,7 @@
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
         <v>45353</v>
       </c>
       <c r="C61" t="n">
@@ -4195,6 +4195,67 @@
         <v>1</v>
       </c>
       <c r="S61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>110</v>
+      </c>
+      <c r="E62" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="G62" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="J62" t="n">
+        <v>109</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>118</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O62" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4209,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,37 +4297,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4275,24 +4336,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4301,11 +4362,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4314,11 +4375,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4327,24 +4388,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4353,20 +4414,20 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4379,11 +4440,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4392,11 +4453,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4405,11 +4466,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4418,24 +4479,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4444,11 +4505,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4457,11 +4518,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4470,7 +4531,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4478,16 +4539,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4496,27 +4557,14 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -4202,7 +4202,7 @@
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="2" t="n">
         <v>45354</v>
       </c>
       <c r="C62" t="n">

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4257,6 +4257,67 @@
       </c>
       <c r="S62" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>117</v>
+      </c>
+      <c r="E63" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="G63" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="J63" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>107</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="N63" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4270,7 +4331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4297,24 +4358,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4323,24 +4384,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4349,11 +4410,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4362,11 +4423,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4375,24 +4436,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4401,20 +4462,20 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4427,11 +4488,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4440,11 +4501,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4453,11 +4514,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4466,24 +4527,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4492,11 +4553,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4505,11 +4566,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4518,7 +4579,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4526,16 +4587,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4544,27 +4605,14 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -4263,7 +4263,7 @@
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="2" t="n">
         <v>45356</v>
       </c>
       <c r="C63" t="n">

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4317,6 +4317,67 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>120</v>
+      </c>
+      <c r="E64" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="G64" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H64" t="n">
+        <v>27</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="J64" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>113</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="N64" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O64" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,7 +4392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4358,11 +4419,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4371,24 +4432,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4397,11 +4458,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4410,11 +4471,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4423,24 +4484,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4449,20 +4510,20 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -4475,11 +4536,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4488,11 +4549,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4501,11 +4562,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4514,24 +4575,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4540,11 +4601,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4553,11 +4614,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4566,7 +4627,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -4574,16 +4635,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4592,27 +4653,14 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -4324,7 +4324,7 @@
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="2" t="n">
         <v>45358</v>
       </c>
       <c r="C64" t="n">

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4379,6 +4379,67 @@
       </c>
       <c r="S64" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>107</v>
+      </c>
+      <c r="E65" t="n">
+        <v>96</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13</v>
+      </c>
+      <c r="H65" t="n">
+        <v>25</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J65" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>117</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="N65" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="O65" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4392,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4419,24 +4480,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4445,11 +4506,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4458,11 +4519,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4471,24 +4532,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4497,20 +4558,20 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4523,11 +4584,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4536,11 +4597,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4549,11 +4610,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4562,24 +4623,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4588,11 +4649,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4601,11 +4662,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4614,7 +4675,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -4622,16 +4683,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4640,27 +4701,14 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4385,7 +4385,7 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="2" t="n">
         <v>45360</v>
       </c>
       <c r="C65" t="n">
@@ -4440,6 +4440,67 @@
       </c>
       <c r="S65" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>117</v>
+      </c>
+      <c r="E66" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="G66" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H66" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="J66" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>111</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="N66" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>25</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4480,11 +4541,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4493,11 +4554,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4506,11 +4567,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4519,24 +4580,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4545,20 +4606,20 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -4571,11 +4632,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4584,11 +4645,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4597,11 +4658,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4610,24 +4671,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4636,11 +4697,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4649,11 +4710,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4662,7 +4723,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -4670,16 +4731,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4688,27 +4749,14 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -4446,7 +4446,7 @@
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="2" t="n">
         <v>45362</v>
       </c>
       <c r="C66" t="n">

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4501,6 +4501,67 @@
       </c>
       <c r="S66" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>112</v>
+      </c>
+      <c r="E67" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G67" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>127</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="N67" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O67" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4514,7 +4575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4541,11 +4602,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4554,11 +4615,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4567,24 +4628,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4593,20 +4654,20 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -4619,11 +4680,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4632,11 +4693,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4645,11 +4706,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4658,24 +4719,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4684,11 +4745,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4697,11 +4758,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4710,7 +4771,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -4718,16 +4779,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4736,27 +4797,14 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4507,7 +4507,7 @@
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="2" t="n">
         <v>45365</v>
       </c>
       <c r="C67" t="n">
@@ -4562,6 +4562,67 @@
       </c>
       <c r="S67" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>107</v>
+      </c>
+      <c r="E68" t="n">
+        <v>95</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H68" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="J68" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>96</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O68" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>101</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4575,7 +4636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4602,11 +4663,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4615,24 +4676,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4641,20 +4702,20 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4667,11 +4728,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4680,11 +4741,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4693,11 +4754,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4706,24 +4767,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4732,11 +4793,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4745,11 +4806,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4758,7 +4819,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4766,16 +4827,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4784,27 +4845,14 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4568,7 +4568,7 @@
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="2" t="n">
         <v>45366</v>
       </c>
       <c r="C68" t="n">
@@ -4623,6 +4623,67 @@
       </c>
       <c r="S68" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>129</v>
+      </c>
+      <c r="E69" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="G69" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H69" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="J69" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>140</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N69" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4636,7 +4697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4663,24 +4724,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4689,20 +4750,20 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4715,11 +4776,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4728,11 +4789,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4741,11 +4802,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4754,24 +4815,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4780,11 +4841,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4793,11 +4854,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4806,7 +4867,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4814,16 +4875,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4832,27 +4893,14 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4629,7 +4629,7 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="2" t="n">
         <v>45368</v>
       </c>
       <c r="C69" t="n">
@@ -4684,6 +4684,67 @@
       </c>
       <c r="S69" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>115</v>
+      </c>
+      <c r="E70" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="G70" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="H70" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="J70" t="n">
+        <v>116.7</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>102</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N70" t="n">
+        <v>8</v>
+      </c>
+      <c r="O70" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4697,7 +4758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4724,11 +4785,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4737,20 +4798,20 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4763,11 +4824,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4776,11 +4837,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4789,11 +4850,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4802,24 +4863,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4828,11 +4889,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4841,11 +4902,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4854,7 +4915,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4862,16 +4923,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4880,27 +4941,14 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4690,7 +4690,7 @@
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="2" t="n">
         <v>45371</v>
       </c>
       <c r="C70" t="n">
@@ -4744,6 +4744,67 @@
         <v>1</v>
       </c>
       <c r="S70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>128</v>
+      </c>
+      <c r="E71" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="G71" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="J71" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>115</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O71" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,20 +4846,20 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4811,11 +4872,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4824,11 +4885,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4837,11 +4898,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4850,24 +4911,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4876,11 +4937,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4889,11 +4950,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4902,7 +4963,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4910,16 +4971,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4928,27 +4989,14 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -4751,7 +4751,7 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="2" t="n">
         <v>45372</v>
       </c>
       <c r="C71" t="n">

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,6 +4805,67 @@
         <v>1</v>
       </c>
       <c r="S71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>131</v>
+      </c>
+      <c r="E72" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="J72" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>106</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="N72" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="O72" t="n">
+        <v>20</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4819,7 +4880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4846,7 +4907,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4859,11 +4920,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4872,11 +4933,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4885,11 +4946,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4898,24 +4959,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4924,11 +4985,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4937,11 +4998,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4950,7 +5011,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -4958,16 +5019,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4976,27 +5037,14 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -4812,7 +4812,7 @@
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="2" t="n">
         <v>45374</v>
       </c>
       <c r="C72" t="n">

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4867,6 +4867,67 @@
       </c>
       <c r="S72" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>102</v>
+      </c>
+      <c r="E73" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="G73" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H73" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J73" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>104</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="N73" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O73" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4880,7 +4941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,11 +4968,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4920,11 +4981,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4933,11 +4994,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4946,24 +5007,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4972,11 +5033,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4985,11 +5046,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4998,7 +5059,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -5006,16 +5067,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -5024,27 +5085,14 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -4873,7 +4873,7 @@
       <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="2" t="n">
         <v>45376</v>
       </c>
       <c r="C73" t="n">

--- a/data/CurrentSeason/PHO.xlsx
+++ b/data/CurrentSeason/PHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4928,6 +4928,67 @@
       </c>
       <c r="S73" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>104</v>
+      </c>
+      <c r="E74" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="G74" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H74" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>97</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O74" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4941,7 +5002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4968,11 +5029,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4981,11 +5042,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4994,24 +5055,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -5020,11 +5081,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -5033,11 +5094,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -5046,7 +5107,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -5054,16 +5115,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -5072,27 +5133,14 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
